--- a/doc/04_画面遷移図_川崎.java.xlsx
+++ b/doc/04_画面遷移図_川崎.java.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9721D435-C304-4AC4-946D-A64CE1A284FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A60D08-01E4-48AC-A387-0FFBBBCA1BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
-    <sheet name="アイテム" sheetId="2" r:id="rId2"/>
+    <sheet name="画面遷移図 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="画面遷移図" sheetId="1" r:id="rId2"/>
+    <sheet name="アイテム" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -102,6 +103,20 @@
   </si>
   <si>
     <t>プロジェクト名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトへの遷移のみ</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -191,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +224,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,6 +246,89 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21404</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107022</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6535062" cy="4086795"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1112E31-115C-403A-864F-4FCAECDFD6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21404" y="1478622"/>
+          <a:ext cx="6535062" cy="4086795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>524410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7640116" cy="4315427"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768AA20E-7E3F-4935-9C5C-D38422EE6C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4639210" y="1435814"/>
+          <a:ext cx="7640116" cy="4315427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -281,7 +382,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -948,10 +1049,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D0BDF-DEDC-4BFF-BFAD-A67839E14732}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H8:J8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1015,7 +1196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
